--- a/reports/overlaps.xlsx
+++ b/reports/overlaps.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\GitHub\UNITATO\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C06F29E-5AD9-43AD-A8A5-22D65239B642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A8AD3B-0D7D-4662-A7C1-E03F0C13DD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-120" windowWidth="29640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="-120" windowWidth="37320" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="many-to-many" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId1"/>
+    <sheet name="many-to-many" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="667">
   <si>
     <t>ID</t>
   </si>
@@ -2025,6 +2026,17 @@
   </si>
   <si>
     <t>annot</t>
+  </si>
+  <si>
+    <t>Output tables is filtered to show only pairs where multiple v6 geneIDs match multiple v4 geneIDs</t>
+  </si>
+  <si>
+    <t>R igraph output of
+maximal weakly connected components of a graph (column 'clu')
+where graph is created from a list of v4v6 pairs</t>
+  </si>
+  <si>
+    <t>Corresponding figures are available at ./scripts/09_intervalsF30_many-to-many.html</t>
   </si>
 </sst>
 </file>
@@ -2078,11 +2090,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2393,10 +2408,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AFCF5E-3447-4DB8-AC64-B2A672C7E4D1}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
